--- a/개발 5팀 7차 미니 프로젝트 산출물 제출/4) 개발 5팀_프로젝트_GanttChart.xlsx
+++ b/개발 5팀 7차 미니 프로젝트 산출물 제출/4) 개발 5팀_프로젝트_GanttChart.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbfjd\Documents\5team\개발 5팀 7차 미니 프로젝트 산출물 제출\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\개발5팀_ECLIPSE-GIT\5team\개발 5팀 7차 미니 프로젝트 산출물 제출\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F0FC2AC-72B6-497C-AD7F-7E4D4DBF3D75}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="간트차트_Gantt Chart" sheetId="5" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="47">
   <si>
     <t>담당자</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -167,10 +168,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>글 상세조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>글수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -186,11 +183,26 @@
     <t>글목록</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>착수검토</t>
+  </si>
+  <si>
+    <t>스프링서버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안드로이드 xml 게시판 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보고서 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="yyyy&quot;/&quot;m&quot;/&quot;d;@"/>
     <numFmt numFmtId="177" formatCode="dd"/>
@@ -783,6 +795,108 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="11" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="9" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="9" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="11" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -794,114 +908,26 @@
     </xf>
     <xf numFmtId="49" fontId="10" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="11" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="9" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="9" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -920,20 +946,6 @@
       <fill>
         <patternFill>
           <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1033,6 +1045,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1068,6 +1097,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1243,14 +1289,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI1048552"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="6" topLeftCell="H7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="J12" sqref="J12"/>
+      <selection pane="bottomRight" activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1266,23 +1312,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="53" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
     </row>
     <row r="2" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="49"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="50"/>
       <c r="E2" s="10" t="s">
         <v>21</v>
       </c>
@@ -1294,66 +1340,66 @@
       </c>
     </row>
     <row r="3" spans="1:35" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="64" t="s">
+      <c r="D3" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="65" t="s">
+      <c r="E3" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="66" t="s">
+      <c r="F3" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="68" t="s">
+      <c r="G3" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="43" t="s">
+      <c r="H3" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="43"/>
-      <c r="S3" s="43"/>
-      <c r="T3" s="43"/>
-      <c r="U3" s="43"/>
-      <c r="V3" s="43"/>
-      <c r="W3" s="43"/>
-      <c r="X3" s="43"/>
-      <c r="Y3" s="43"/>
-      <c r="Z3" s="43"/>
-      <c r="AA3" s="43"/>
-      <c r="AB3" s="43"/>
-      <c r="AC3" s="43"/>
-      <c r="AD3" s="43"/>
-      <c r="AE3" s="43"/>
-      <c r="AF3" s="43"/>
-      <c r="AG3" s="43"/>
-      <c r="AH3" s="43"/>
-      <c r="AI3" s="43"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="44"/>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="44"/>
+      <c r="Y3" s="44"/>
+      <c r="Z3" s="44"/>
+      <c r="AA3" s="44"/>
+      <c r="AB3" s="44"/>
+      <c r="AC3" s="44"/>
+      <c r="AD3" s="44"/>
+      <c r="AE3" s="44"/>
+      <c r="AF3" s="44"/>
+      <c r="AG3" s="44"/>
+      <c r="AH3" s="44"/>
+      <c r="AI3" s="44"/>
     </row>
     <row r="4" spans="1:35" s="6" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="63"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="68"/>
+      <c r="A4" s="64"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="69"/>
       <c r="H4" s="8">
         <v>44046</v>
       </c>
@@ -1440,49 +1486,49 @@
       </c>
     </row>
     <row r="5" spans="1:35" s="6" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="63"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="39" t="s">
+      <c r="A5" s="64"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39" t="s">
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="73"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="39"/>
-      <c r="S5" s="39"/>
-      <c r="T5" s="39"/>
-      <c r="U5" s="39"/>
-      <c r="V5" s="39" t="s">
+      <c r="P5" s="73"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="73"/>
+      <c r="T5" s="73"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="W5" s="39"/>
-      <c r="X5" s="39"/>
-      <c r="Y5" s="39"/>
-      <c r="Z5" s="39"/>
-      <c r="AA5" s="39"/>
-      <c r="AB5" s="39"/>
-      <c r="AC5" s="39" t="s">
+      <c r="W5" s="73"/>
+      <c r="X5" s="73"/>
+      <c r="Y5" s="73"/>
+      <c r="Z5" s="73"/>
+      <c r="AA5" s="73"/>
+      <c r="AB5" s="73"/>
+      <c r="AC5" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="AD5" s="39"/>
-      <c r="AE5" s="39"/>
-      <c r="AF5" s="39"/>
-      <c r="AG5" s="39"/>
-      <c r="AH5" s="39"/>
-      <c r="AI5" s="39"/>
+      <c r="AD5" s="73"/>
+      <c r="AE5" s="73"/>
+      <c r="AF5" s="73"/>
+      <c r="AG5" s="73"/>
+      <c r="AH5" s="73"/>
+      <c r="AI5" s="73"/>
     </row>
     <row r="6" spans="1:35" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16"/>
@@ -1578,7 +1624,7 @@
       </c>
     </row>
     <row r="7" spans="1:35" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="70" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="24" t="s">
@@ -1592,7 +1638,7 @@
         <v>44336</v>
       </c>
       <c r="F7" s="27">
-        <f t="shared" ref="F7:F11" si="0">E7-D7+1</f>
+        <f t="shared" ref="F7:F12" si="0">E7-D7+1</f>
         <v>8</v>
       </c>
       <c r="G7" s="28" t="s">
@@ -1638,36 +1684,36 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="R7" s="72" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="S7" s="72" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="T7" s="72" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="U7" s="72" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="V7" s="72" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W7" s="72" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="X7" s="72" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Y7" s="72" t="str">
-        <f t="shared" ref="Y7:AI21" si="2">IF(AND(Y$4&gt;=$D7,Y$4&lt;=$E7)," ","")</f>
+      <c r="R7" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S7" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="T7" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="U7" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="V7" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="W7" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="X7" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Y7" s="39" t="str">
+        <f t="shared" ref="X7:AI21" si="2">IF(AND(Y$4&gt;=$D7,Y$4&lt;=$E7)," ","")</f>
         <v/>
       </c>
       <c r="Z7" s="29" t="str">
@@ -1712,7 +1758,7 @@
       </c>
     </row>
     <row r="8" spans="1:35" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="70"/>
+      <c r="A8" s="71"/>
       <c r="B8" s="11" t="s">
         <v>27</v>
       </c>
@@ -1731,7 +1777,7 @@
         <v>26</v>
       </c>
       <c r="H8" s="23" t="str">
-        <f t="shared" ref="H8:W22" si="3">IF(AND(H$4&gt;=$D8,H$4&lt;=$E8)," ","")</f>
+        <f t="shared" ref="H8:W23" si="3">IF(AND(H$4&gt;=$D8,H$4&lt;=$E8)," ","")</f>
         <v/>
       </c>
       <c r="I8" s="23" t="str">
@@ -1770,35 +1816,35 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="R8" s="73" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="S8" s="73" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="T8" s="73" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="U8" s="73" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="V8" s="73" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W8" s="73" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="X8" s="73" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Y8" s="73" t="str">
+      <c r="R8" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S8" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="T8" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="U8" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="V8" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="W8" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="X8" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Y8" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -1844,7 +1890,7 @@
       </c>
     </row>
     <row r="9" spans="1:35" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="70"/>
+      <c r="A9" s="71"/>
       <c r="B9" s="11" t="s">
         <v>28</v>
       </c>
@@ -1902,35 +1948,35 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="R9" s="73" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="S9" s="73" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="T9" s="73" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="U9" s="73" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="V9" s="73" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W9" s="73" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="X9" s="73" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Y9" s="73" t="str">
+      <c r="R9" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S9" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="T9" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="U9" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="V9" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="W9" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="X9" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Y9" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -1976,7 +2022,7 @@
       </c>
     </row>
     <row r="10" spans="1:35" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="70"/>
+      <c r="A10" s="71"/>
       <c r="B10" s="11" t="s">
         <v>29</v>
       </c>
@@ -2034,35 +2080,35 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="R10" s="73" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="S10" s="73" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="T10" s="73" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="U10" s="73" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="V10" s="73" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W10" s="73" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="X10" s="73" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Y10" s="73" t="str">
+      <c r="R10" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S10" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="T10" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="U10" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="V10" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="W10" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="X10" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Y10" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -2108,7 +2154,7 @@
       </c>
     </row>
     <row r="11" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="70"/>
+      <c r="A11" s="71"/>
       <c r="B11" s="11" t="s">
         <v>30</v>
       </c>
@@ -2166,35 +2212,35 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="R11" s="73" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="S11" s="73" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="T11" s="73" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="U11" s="73" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="V11" s="73" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W11" s="73" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="X11" s="73" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Y11" s="73" t="str">
+      <c r="R11" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S11" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="T11" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="U11" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="V11" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="W11" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="X11" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Y11" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -2240,13 +2286,24 @@
       </c>
     </row>
     <row r="12" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="70"/>
-      <c r="B12" s="11"/>
+      <c r="A12" s="71"/>
+      <c r="B12" s="11" t="s">
+        <v>46</v>
+      </c>
       <c r="C12" s="12"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="15"/>
+      <c r="D12" s="13">
+        <v>44335</v>
+      </c>
+      <c r="E12" s="13">
+        <v>44336</v>
+      </c>
+      <c r="F12" s="14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>26</v>
+      </c>
       <c r="H12" s="23" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2311,11 +2368,11 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="X12" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Y12" s="23" t="str">
+      <c r="X12" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Y12" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -2361,7 +2418,7 @@
       </c>
     </row>
     <row r="13" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="70"/>
+      <c r="A13" s="71"/>
       <c r="B13" s="11"/>
       <c r="C13" s="12"/>
       <c r="D13" s="13"/>
@@ -2482,7 +2539,7 @@
       </c>
     </row>
     <row r="14" spans="1:35" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="71"/>
+      <c r="A14" s="72"/>
       <c r="B14" s="32"/>
       <c r="C14" s="33"/>
       <c r="D14" s="34"/>
@@ -2602,8 +2659,8 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="57" t="s">
+    <row r="15" spans="1:35" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="58" t="s">
         <v>35</v>
       </c>
       <c r="B15" s="24" t="s">
@@ -2663,35 +2720,35 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="R15" s="74" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="S15" s="74" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="T15" s="74" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="U15" s="74" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="V15" s="74" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W15" s="74" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="X15" s="74" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Y15" s="74" t="str">
+      <c r="R15" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S15" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="T15" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="U15" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="V15" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="W15" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="X15" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Y15" s="41" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -2736,16 +2793,25 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="58"/>
+    <row r="16" spans="1:35" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="59"/>
       <c r="B16" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16" s="12"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="15"/>
+      <c r="D16" s="26">
+        <v>44329</v>
+      </c>
+      <c r="E16" s="26">
+        <v>44336</v>
+      </c>
+      <c r="F16" s="27">
+        <f t="shared" ref="F16" si="5">E16-D16+1</f>
+        <v>8</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>26</v>
+      </c>
       <c r="H16" s="23" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2786,35 +2852,35 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="R16" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="S16" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="T16" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="U16" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="V16" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W16" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="X16" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Y16" s="23" t="str">
+      <c r="R16" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S16" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="T16" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="U16" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="V16" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="W16" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="X16" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Y16" s="41" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -2860,13 +2926,23 @@
       </c>
     </row>
     <row r="17" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="58"/>
-      <c r="B17" s="11"/>
+      <c r="A17" s="59"/>
+      <c r="B17" s="11" t="s">
+        <v>44</v>
+      </c>
       <c r="C17" s="12"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="15"/>
+      <c r="D17" s="26">
+        <v>44329</v>
+      </c>
+      <c r="E17" s="13">
+        <v>44334</v>
+      </c>
+      <c r="F17" s="14">
+        <v>6</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>26</v>
+      </c>
       <c r="H17" s="23" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2907,28 +2983,28 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="R17" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="S17" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="T17" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="U17" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="V17" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W17" s="23" t="str">
-        <f t="shared" si="1"/>
+      <c r="R17" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S17" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="T17" s="41" t="str">
+        <f t="shared" ref="T17:W17" si="6">IF(AND(T$4&gt;=$D17,T$4&lt;=$E17)," ","")</f>
+        <v/>
+      </c>
+      <c r="U17" s="41" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="V17" s="41" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="W17" s="41" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="X17" s="23" t="str">
@@ -2981,7 +3057,7 @@
       </c>
     </row>
     <row r="18" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="58"/>
+      <c r="A18" s="59"/>
       <c r="B18" s="11"/>
       <c r="C18" s="12"/>
       <c r="D18" s="13"/>
@@ -3102,7 +3178,7 @@
       </c>
     </row>
     <row r="19" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="58"/>
+      <c r="A19" s="59"/>
       <c r="B19" s="11"/>
       <c r="C19" s="12"/>
       <c r="D19" s="13"/>
@@ -3223,7 +3299,7 @@
       </c>
     </row>
     <row r="20" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="58"/>
+      <c r="A20" s="59"/>
       <c r="B20" s="11"/>
       <c r="C20" s="12"/>
       <c r="D20" s="13"/>
@@ -3344,7 +3420,7 @@
       </c>
     </row>
     <row r="21" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="58"/>
+      <c r="A21" s="59"/>
       <c r="B21" s="11"/>
       <c r="C21" s="12"/>
       <c r="D21" s="13"/>
@@ -3416,7 +3492,7 @@
         <v/>
       </c>
       <c r="X21" s="23" t="str">
-        <f t="shared" ref="X21:AI35" si="5">IF(AND(X$4&gt;=$D21,X$4&lt;=$E21)," ","")</f>
+        <f t="shared" ref="X21:AI35" si="7">IF(AND(X$4&gt;=$D21,X$4&lt;=$E21)," ","")</f>
         <v/>
       </c>
       <c r="Y21" s="23" t="str">
@@ -3465,7 +3541,7 @@
       </c>
     </row>
     <row r="22" spans="1:35" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="59"/>
+      <c r="A22" s="60"/>
       <c r="B22" s="32"/>
       <c r="C22" s="33"/>
       <c r="D22" s="34"/>
@@ -3537,60 +3613,60 @@
         <v/>
       </c>
       <c r="X22" s="37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Y22" s="37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Z22" s="37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AA22" s="37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AB22" s="37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AC22" s="37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AD22" s="37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AE22" s="37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AF22" s="37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AG22" s="37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AH22" s="37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AI22" s="38" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="60" t="s">
+      <c r="A23" s="61" t="s">
         <v>36</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C23" s="25"/>
       <c r="D23" s="26">
@@ -3600,127 +3676,100 @@
         <v>44336</v>
       </c>
       <c r="F23" s="27">
-        <f t="shared" ref="F23" si="6">E23-D23+1</f>
+        <f t="shared" ref="F23" si="8">E23-D23+1</f>
         <v>8</v>
       </c>
       <c r="G23" s="28" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="H23" s="29" t="str">
-        <f t="shared" ref="H23:W40" si="7">IF(AND(H$4&gt;=$D23,H$4&lt;=$E23)," ","")</f>
+        <f t="shared" ref="H23:W40" si="9">IF(AND(H$4&gt;=$D23,H$4&lt;=$E23)," ","")</f>
         <v/>
       </c>
       <c r="I23" s="29" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="J23" s="29" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="K23" s="29" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L23" s="29" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="M23" s="29" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N23" s="29" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="O23" s="29" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="P23" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="Q23" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="R23" s="74" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="S23" s="74" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="T23" s="74" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="U23" s="74" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="V23" s="74" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="W23" s="74" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="X23" s="74" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Y23" s="74" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="41"/>
+      <c r="S23" s="41"/>
+      <c r="T23" s="41"/>
+      <c r="U23" s="41"/>
+      <c r="V23" s="41"/>
+      <c r="W23" s="41"/>
+      <c r="X23" s="41"/>
+      <c r="Y23" s="41"/>
       <c r="Z23" s="29" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AA23" s="29" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AB23" s="29" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AC23" s="29" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AD23" s="29" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AE23" s="29" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AF23" s="29" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AG23" s="29" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AH23" s="29" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AI23" s="30" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="61"/>
+      <c r="A24" s="62"/>
       <c r="B24" s="11"/>
       <c r="C24" s="12"/>
       <c r="D24" s="13"/>
@@ -3728,120 +3777,120 @@
       <c r="F24" s="14"/>
       <c r="G24" s="15"/>
       <c r="H24" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I24" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="J24" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="K24" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L24" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="M24" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N24" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="O24" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="P24" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Q24" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="R24" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="S24" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="T24" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="U24" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="V24" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W24" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="X24" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Y24" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Z24" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AA24" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AB24" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AC24" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AD24" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AE24" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AF24" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AG24" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AH24" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AI24" s="31" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="61"/>
+      <c r="A25" s="62"/>
       <c r="B25" s="11"/>
       <c r="C25" s="12"/>
       <c r="D25" s="13"/>
@@ -3849,120 +3898,120 @@
       <c r="F25" s="14"/>
       <c r="G25" s="15"/>
       <c r="H25" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I25" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="J25" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="K25" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L25" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="M25" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N25" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="O25" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="P25" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Q25" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="R25" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="S25" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="T25" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="U25" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="V25" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W25" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="X25" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Y25" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Z25" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AA25" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AB25" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AC25" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AD25" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AE25" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AF25" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AG25" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AH25" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AI25" s="31" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="61"/>
+      <c r="A26" s="62"/>
       <c r="B26" s="11"/>
       <c r="C26" s="12"/>
       <c r="D26" s="13"/>
@@ -3970,120 +4019,120 @@
       <c r="F26" s="14"/>
       <c r="G26" s="15"/>
       <c r="H26" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I26" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="J26" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="K26" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L26" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="M26" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N26" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="O26" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="P26" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Q26" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="R26" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="S26" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="T26" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="U26" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="V26" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W26" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="X26" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Y26" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Z26" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AA26" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AB26" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AC26" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AD26" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AE26" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AF26" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AG26" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AH26" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AI26" s="31" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="61"/>
+      <c r="A27" s="62"/>
       <c r="B27" s="11"/>
       <c r="C27" s="12"/>
       <c r="D27" s="13"/>
@@ -4091,120 +4140,120 @@
       <c r="F27" s="14"/>
       <c r="G27" s="15"/>
       <c r="H27" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I27" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="J27" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="K27" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L27" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="M27" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N27" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="O27" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="P27" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Q27" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="R27" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="S27" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="T27" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="U27" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="V27" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W27" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="X27" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Y27" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Z27" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AA27" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AB27" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AC27" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AD27" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AE27" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AF27" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AG27" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AH27" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AI27" s="31" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="61"/>
+      <c r="A28" s="62"/>
       <c r="B28" s="11"/>
       <c r="C28" s="12"/>
       <c r="D28" s="13"/>
@@ -4241,7 +4290,7 @@
       <c r="AI28" s="31"/>
     </row>
     <row r="29" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="61"/>
+      <c r="A29" s="62"/>
       <c r="B29" s="11"/>
       <c r="C29" s="12"/>
       <c r="D29" s="13"/>
@@ -4249,120 +4298,120 @@
       <c r="F29" s="14"/>
       <c r="G29" s="15"/>
       <c r="H29" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I29" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="J29" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="K29" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L29" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="M29" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N29" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="O29" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="P29" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Q29" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="R29" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="S29" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="T29" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="U29" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="V29" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W29" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="X29" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Y29" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Z29" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AA29" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AB29" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AC29" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AD29" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AE29" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AF29" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AG29" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AH29" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AI29" s="31" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:35" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="62"/>
+      <c r="A30" s="63"/>
       <c r="B30" s="32"/>
       <c r="C30" s="33"/>
       <c r="D30" s="34"/>
@@ -4370,124 +4419,124 @@
       <c r="F30" s="35"/>
       <c r="G30" s="36"/>
       <c r="H30" s="37" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I30" s="37" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="J30" s="37" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="K30" s="37" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L30" s="37" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="M30" s="37" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N30" s="37" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="O30" s="37" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="P30" s="37" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Q30" s="37" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="R30" s="37" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="S30" s="37" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="T30" s="37" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="U30" s="37" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="V30" s="37" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W30" s="37" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="X30" s="37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Y30" s="37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Z30" s="37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AA30" s="37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AB30" s="37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AC30" s="37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AD30" s="37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AE30" s="37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AF30" s="37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AG30" s="37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AH30" s="37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AI30" s="38" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="54" t="s">
+    <row r="31" spans="1:35" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="55" t="s">
         <v>37</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C31" s="25"/>
       <c r="D31" s="26">
@@ -4497,248 +4546,259 @@
         <v>44336</v>
       </c>
       <c r="F31" s="27">
-        <f t="shared" ref="F31" si="8">E31-D31+1</f>
+        <f t="shared" ref="F31" si="10">E31-D31+1</f>
         <v>8</v>
       </c>
       <c r="G31" s="28" t="s">
         <v>26</v>
       </c>
       <c r="H31" s="29" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I31" s="29" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="J31" s="29" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="K31" s="29" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L31" s="29" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="M31" s="29" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N31" s="29" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="O31" s="29" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="P31" s="29" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Q31" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="R31" s="74" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="S31" s="74" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="T31" s="74" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="U31" s="74" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="V31" s="74" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="W31" s="74" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="X31" s="74" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Y31" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="R31" s="41" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="S31" s="41" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="T31" s="41" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="U31" s="41" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="V31" s="41" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="W31" s="41" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="X31" s="41" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="Y31" s="41" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Z31" s="29" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AA31" s="29" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AB31" s="29" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AC31" s="29" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AD31" s="29" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AE31" s="29" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AF31" s="29" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AG31" s="29" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AH31" s="29" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AI31" s="30" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="55"/>
-      <c r="B32" s="11"/>
+      <c r="A32" s="56"/>
+      <c r="B32" s="11" t="s">
+        <v>45</v>
+      </c>
       <c r="C32" s="12"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="15"/>
+      <c r="D32" s="26">
+        <v>44329</v>
+      </c>
+      <c r="E32" s="26">
+        <v>44336</v>
+      </c>
+      <c r="F32" s="27">
+        <f t="shared" ref="F32" si="11">E32-D32+1</f>
+        <v>8</v>
+      </c>
+      <c r="G32" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H32" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I32" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="J32" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="K32" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L32" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="M32" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N32" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="O32" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="P32" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Q32" s="23" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="R32" s="23" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="S32" s="23" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="T32" s="23" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="U32" s="23" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="V32" s="23" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="W32" s="23" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="X32" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Y32" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="R32" s="41" t="str">
+        <f t="shared" ref="R32:Y32" si="12">IF(AND(R$4&gt;=$D32,R$4&lt;=$E32)," ","")</f>
+        <v/>
+      </c>
+      <c r="S32" s="41" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="T32" s="41" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="U32" s="41" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="V32" s="41" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="W32" s="41" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="X32" s="41" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="Y32" s="41" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Z32" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AA32" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AB32" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AC32" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AD32" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AE32" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AF32" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AG32" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AH32" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AI32" s="31" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="55"/>
+      <c r="A33" s="56"/>
       <c r="B33" s="11"/>
       <c r="C33" s="12"/>
       <c r="D33" s="13"/>
@@ -4746,120 +4806,120 @@
       <c r="F33" s="14"/>
       <c r="G33" s="15"/>
       <c r="H33" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I33" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="J33" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="K33" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L33" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="M33" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N33" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="O33" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="P33" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Q33" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="R33" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="S33" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="T33" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="U33" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="V33" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W33" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="X33" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Y33" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Z33" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AA33" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AB33" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AC33" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AD33" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AE33" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AF33" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AG33" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AH33" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AI33" s="31" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="34" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="55"/>
+      <c r="A34" s="56"/>
       <c r="B34" s="11"/>
       <c r="C34" s="12"/>
       <c r="D34" s="13"/>
@@ -4867,120 +4927,120 @@
       <c r="F34" s="14"/>
       <c r="G34" s="15"/>
       <c r="H34" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I34" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="J34" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="K34" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L34" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="M34" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N34" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="O34" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="P34" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Q34" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="R34" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="S34" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="T34" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="U34" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="V34" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W34" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="X34" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Y34" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Z34" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AA34" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AB34" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AC34" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AD34" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AE34" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AF34" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AG34" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AH34" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AI34" s="31" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="35" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="55"/>
+      <c r="A35" s="56"/>
       <c r="B35" s="11"/>
       <c r="C35" s="12"/>
       <c r="D35" s="13"/>
@@ -4988,120 +5048,120 @@
       <c r="F35" s="14"/>
       <c r="G35" s="15"/>
       <c r="H35" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I35" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="J35" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="K35" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L35" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="M35" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N35" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="O35" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="P35" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Q35" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="R35" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="S35" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="T35" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="U35" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="V35" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W35" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="X35" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Y35" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Z35" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AA35" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AB35" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AC35" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AD35" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AE35" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AF35" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AG35" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AH35" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AI35" s="31" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="36" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="55"/>
+      <c r="A36" s="56"/>
       <c r="B36" s="11"/>
       <c r="C36" s="12"/>
       <c r="D36" s="13"/>
@@ -5138,7 +5198,7 @@
       <c r="AI36" s="31"/>
     </row>
     <row r="37" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="55"/>
+      <c r="A37" s="56"/>
       <c r="B37" s="11"/>
       <c r="C37" s="12"/>
       <c r="D37" s="13"/>
@@ -5146,120 +5206,120 @@
       <c r="F37" s="14"/>
       <c r="G37" s="15"/>
       <c r="H37" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I37" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="J37" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="K37" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L37" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="M37" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N37" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="O37" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="P37" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Q37" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="R37" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="S37" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="T37" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="U37" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="V37" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W37" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="X37" s="23" t="str">
-        <f t="shared" ref="X37:AI54" si="9">IF(AND(X$4&gt;=$D37,X$4&lt;=$E37)," ","")</f>
+        <f t="shared" ref="X37:AI54" si="13">IF(AND(X$4&gt;=$D37,X$4&lt;=$E37)," ","")</f>
         <v/>
       </c>
       <c r="Y37" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="Z37" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AA37" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AB37" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AC37" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AD37" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AE37" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AF37" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AG37" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AH37" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AI37" s="31" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="38" spans="1:35" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="56"/>
+      <c r="A38" s="57"/>
       <c r="B38" s="32"/>
       <c r="C38" s="33"/>
       <c r="D38" s="34"/>
@@ -5267,124 +5327,124 @@
       <c r="F38" s="35"/>
       <c r="G38" s="36"/>
       <c r="H38" s="37" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I38" s="37" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="J38" s="37" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="K38" s="37" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L38" s="37" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="M38" s="37" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N38" s="37" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="O38" s="37" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="P38" s="37" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Q38" s="37" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="R38" s="37" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="S38" s="37" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="T38" s="37" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="U38" s="37" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="V38" s="37" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W38" s="37" t="str">
-        <f t="shared" ref="W38" si="10">IF(AND(W$4&gt;=$D38,W$4&lt;=$E38)," ","")</f>
+        <f t="shared" ref="W38" si="14">IF(AND(W$4&gt;=$D38,W$4&lt;=$E38)," ","")</f>
         <v/>
       </c>
       <c r="X38" s="37" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="Y38" s="37" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="Z38" s="37" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AA38" s="37" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AB38" s="37" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AC38" s="37" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AD38" s="37" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AE38" s="37" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AF38" s="37" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AG38" s="37" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AH38" s="37" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AI38" s="38" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="39" spans="1:35" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="40" t="s">
+      <c r="A39" s="74" t="s">
         <v>38</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C39" s="25"/>
       <c r="D39" s="26">
@@ -5394,259 +5454,258 @@
         <v>44336</v>
       </c>
       <c r="F39" s="27">
-        <f t="shared" ref="F39:F40" si="11">E39-D39+1</f>
+        <f t="shared" ref="F39:F40" si="15">E39-D39+1</f>
         <v>8</v>
       </c>
       <c r="G39" s="28" t="s">
         <v>26</v>
       </c>
       <c r="H39" s="29" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I39" s="29" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="J39" s="29" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="K39" s="29" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L39" s="29" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="M39" s="29" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N39" s="29" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="O39" s="29" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="P39" s="29" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Q39" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="R39" s="74" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="S39" s="74" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="T39" s="74" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="U39" s="74" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="V39" s="74" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="W39" s="74" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="X39" s="74" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="Y39" s="74" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="R39" s="41" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="S39" s="41" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="T39" s="41" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="U39" s="41" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="V39" s="41" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="W39" s="41" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="X39" s="41" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="Y39" s="41" t="str">
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="Z39" s="29" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AA39" s="29" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AB39" s="29" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AC39" s="29" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AD39" s="29" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AE39" s="29" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AF39" s="29" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AG39" s="29" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AH39" s="29" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AI39" s="30" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="40" spans="1:35" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="41"/>
+      <c r="A40" s="75"/>
       <c r="B40" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C40" s="12"/>
       <c r="D40" s="26">
         <v>44329</v>
       </c>
-      <c r="E40" s="26">
-        <v>44336</v>
-      </c>
-      <c r="F40" s="27">
-        <f t="shared" si="11"/>
-        <v>8</v>
-      </c>
-      <c r="G40" s="28" t="s">
+      <c r="E40" s="13">
+        <v>44334</v>
+      </c>
+      <c r="F40" s="14">
+        <v>6</v>
+      </c>
+      <c r="G40" s="15" t="s">
         <v>26</v>
       </c>
       <c r="H40" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I40" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="J40" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="K40" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L40" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="M40" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N40" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="O40" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="P40" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Q40" s="23" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="R40" s="75" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="S40" s="75" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="T40" s="75" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="U40" s="75" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="V40" s="75" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="W40" s="75" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="X40" s="75" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="Y40" s="75" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="R40" s="42" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="S40" s="42" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="T40" s="42" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="U40" s="42" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="V40" s="42" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="W40" s="42" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="X40" s="42" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="Y40" s="42" t="str">
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="Z40" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AA40" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AB40" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AC40" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AD40" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AE40" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AF40" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AG40" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AH40" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AI40" s="31" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="41" spans="1:35" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="41"/>
+      <c r="A41" s="75"/>
       <c r="B41" s="11"/>
       <c r="C41" s="12"/>
       <c r="D41" s="26"/>
@@ -5654,120 +5713,120 @@
       <c r="F41" s="14"/>
       <c r="G41" s="15"/>
       <c r="H41" s="23" t="str">
-        <f t="shared" ref="H41:W54" si="12">IF(AND(H$4&gt;=$D41,H$4&lt;=$E41)," ","")</f>
+        <f t="shared" ref="H41:W54" si="16">IF(AND(H$4&gt;=$D41,H$4&lt;=$E41)," ","")</f>
         <v/>
       </c>
       <c r="I41" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J41" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="K41" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="L41" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="M41" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="N41" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="O41" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="P41" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="Q41" s="23" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="R41" s="76" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="S41" s="76" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="T41" s="76" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="U41" s="76" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="V41" s="76" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="W41" s="76" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="X41" s="76" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="Y41" s="76" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="R41" s="43" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="S41" s="43" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="T41" s="43" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="U41" s="43" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="V41" s="43" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="W41" s="43" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="X41" s="43" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="Y41" s="43" t="str">
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="Z41" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AA41" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AB41" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AC41" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AD41" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AE41" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AF41" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AG41" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AH41" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AI41" s="31" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="42" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="41"/>
+      <c r="A42" s="75"/>
       <c r="B42" s="11"/>
       <c r="C42" s="12"/>
       <c r="D42" s="26"/>
@@ -5775,120 +5834,120 @@
       <c r="F42" s="14"/>
       <c r="G42" s="15"/>
       <c r="H42" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I42" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J42" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="K42" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="L42" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="M42" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="N42" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="O42" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="P42" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="Q42" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="R42" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="S42" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="T42" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="U42" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="V42" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="W42" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="X42" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="Y42" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="Z42" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AA42" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AB42" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AC42" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AD42" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AE42" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AF42" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AG42" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AH42" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AI42" s="31" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="43" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="41"/>
+      <c r="A43" s="75"/>
       <c r="B43" s="11"/>
       <c r="C43" s="12"/>
       <c r="D43" s="13"/>
@@ -5896,120 +5955,120 @@
       <c r="F43" s="14"/>
       <c r="G43" s="15"/>
       <c r="H43" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I43" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J43" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="K43" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="L43" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="M43" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="N43" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="O43" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="P43" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="Q43" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="R43" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="S43" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="T43" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="U43" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="V43" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="W43" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="X43" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="Y43" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="Z43" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AA43" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AB43" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AC43" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AD43" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AE43" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AF43" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AG43" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AH43" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AI43" s="31" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="44" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="41"/>
+      <c r="A44" s="75"/>
       <c r="B44" s="11"/>
       <c r="C44" s="12"/>
       <c r="D44" s="13"/>
@@ -6046,7 +6105,7 @@
       <c r="AI44" s="31"/>
     </row>
     <row r="45" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="41"/>
+      <c r="A45" s="75"/>
       <c r="B45" s="11"/>
       <c r="C45" s="12"/>
       <c r="D45" s="13"/>
@@ -6054,120 +6113,120 @@
       <c r="F45" s="14"/>
       <c r="G45" s="15"/>
       <c r="H45" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I45" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J45" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="K45" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="L45" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="M45" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="N45" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="O45" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="P45" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="Q45" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="R45" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="S45" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="T45" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="U45" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="V45" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="W45" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="X45" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="Y45" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="Z45" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AA45" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AB45" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AC45" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AD45" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AE45" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AF45" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AG45" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AH45" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AI45" s="31" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="46" spans="1:35" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="42"/>
+      <c r="A46" s="76"/>
       <c r="B46" s="32"/>
       <c r="C46" s="33"/>
       <c r="D46" s="34"/>
@@ -6175,120 +6234,120 @@
       <c r="F46" s="35"/>
       <c r="G46" s="36"/>
       <c r="H46" s="37" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I46" s="37" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J46" s="37" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="K46" s="37" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="L46" s="37" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="M46" s="37" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="N46" s="37" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="O46" s="37" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="P46" s="37" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="Q46" s="37" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="R46" s="37" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="S46" s="37" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="T46" s="37" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="U46" s="37" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="V46" s="37" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="W46" s="37" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="X46" s="37" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="Y46" s="37" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="Z46" s="37" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AA46" s="37" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AB46" s="37" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AC46" s="37" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AD46" s="37" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AE46" s="37" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AF46" s="37" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AG46" s="37" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AH46" s="37" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AI46" s="38" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="47" spans="1:35" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="50" t="s">
+      <c r="A47" s="51" t="s">
         <v>34</v>
       </c>
       <c r="B47" s="24" t="s">
@@ -6302,248 +6361,259 @@
         <v>44336</v>
       </c>
       <c r="F47" s="27">
-        <f t="shared" ref="F47" si="13">E47-D47+1</f>
+        <f t="shared" ref="F47" si="17">E47-D47+1</f>
         <v>8</v>
       </c>
       <c r="G47" s="28" t="s">
         <v>26</v>
       </c>
       <c r="H47" s="29" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I47" s="29" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J47" s="29" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="K47" s="29" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="L47" s="29" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="M47" s="29" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="N47" s="29" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="O47" s="29" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="P47" s="29" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="Q47" s="29" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="R47" s="74" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="S47" s="74" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="T47" s="74" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="U47" s="74" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="V47" s="74" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="W47" s="74" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="X47" s="74" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="Y47" s="74" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="R47" s="41" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="S47" s="41" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="T47" s="41" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="U47" s="41" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="V47" s="41" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="W47" s="41" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="X47" s="41" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="Y47" s="41" t="str">
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="Z47" s="29" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AA47" s="29" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AB47" s="29" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AC47" s="29" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AD47" s="29" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AE47" s="29" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AF47" s="29" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AG47" s="29" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AH47" s="29" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AI47" s="30" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="48" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="51"/>
-      <c r="B48" s="11"/>
+      <c r="A48" s="52"/>
+      <c r="B48" s="24" t="s">
+        <v>39</v>
+      </c>
       <c r="C48" s="12"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="15"/>
+      <c r="D48" s="26">
+        <v>44329</v>
+      </c>
+      <c r="E48" s="26">
+        <v>44336</v>
+      </c>
+      <c r="F48" s="27">
+        <f t="shared" ref="F48" si="18">E48-D48+1</f>
+        <v>8</v>
+      </c>
+      <c r="G48" s="15" t="s">
+        <v>26</v>
+      </c>
       <c r="H48" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I48" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J48" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="K48" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="L48" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="M48" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="N48" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="O48" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="P48" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="Q48" s="23" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="R48" s="76" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="S48" s="76" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="T48" s="76" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="U48" s="76" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="V48" s="76" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="W48" s="76" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="X48" s="76" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="Y48" s="76" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="R48" s="41" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="S48" s="41" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="T48" s="41" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="U48" s="41" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="V48" s="41" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="W48" s="41" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="X48" s="41" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="Y48" s="41" t="str">
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="Z48" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AA48" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AB48" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AC48" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AD48" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AE48" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AF48" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AG48" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AH48" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AI48" s="31" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="49" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="51"/>
+      <c r="A49" s="52"/>
       <c r="B49" s="11"/>
       <c r="C49" s="12"/>
       <c r="D49" s="13"/>
@@ -6551,120 +6621,120 @@
       <c r="F49" s="14"/>
       <c r="G49" s="15"/>
       <c r="H49" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I49" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J49" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="K49" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="L49" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="M49" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="N49" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="O49" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="P49" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="Q49" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="R49" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="S49" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="T49" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="U49" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="V49" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="W49" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="X49" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="Y49" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="Z49" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AA49" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AB49" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AC49" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AD49" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AE49" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AF49" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AG49" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AH49" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AI49" s="31" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="50" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="51"/>
+      <c r="A50" s="52"/>
       <c r="B50" s="11"/>
       <c r="C50" s="12"/>
       <c r="D50" s="13"/>
@@ -6672,120 +6742,120 @@
       <c r="F50" s="14"/>
       <c r="G50" s="15"/>
       <c r="H50" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I50" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J50" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="K50" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="L50" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="M50" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="N50" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="O50" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="P50" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="Q50" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="R50" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="S50" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="T50" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="U50" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="V50" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="W50" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="X50" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="Y50" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="Z50" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AA50" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AB50" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AC50" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AD50" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AE50" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AF50" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AG50" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AH50" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AI50" s="31" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="51" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="51"/>
+      <c r="A51" s="52"/>
       <c r="B51" s="11"/>
       <c r="C51" s="12"/>
       <c r="D51" s="13"/>
@@ -6793,120 +6863,120 @@
       <c r="F51" s="14"/>
       <c r="G51" s="15"/>
       <c r="H51" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I51" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J51" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="K51" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="L51" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="M51" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="N51" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="O51" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="P51" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="Q51" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="R51" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="S51" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="T51" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="U51" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="V51" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="W51" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="X51" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="Y51" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="Z51" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AA51" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AB51" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AC51" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AD51" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AE51" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AF51" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AG51" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AH51" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AI51" s="31" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="52" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="51"/>
+      <c r="A52" s="52"/>
       <c r="B52" s="11"/>
       <c r="C52" s="12"/>
       <c r="D52" s="13"/>
@@ -6943,7 +7013,7 @@
       <c r="AI52" s="31"/>
     </row>
     <row r="53" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="51"/>
+      <c r="A53" s="52"/>
       <c r="B53" s="11"/>
       <c r="C53" s="12"/>
       <c r="D53" s="13"/>
@@ -6951,120 +7021,120 @@
       <c r="F53" s="14"/>
       <c r="G53" s="15"/>
       <c r="H53" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I53" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J53" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="K53" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="L53" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="M53" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="N53" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="O53" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="P53" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="Q53" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="R53" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="S53" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="T53" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="U53" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="V53" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="W53" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="X53" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="Y53" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="Z53" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AA53" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AB53" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AC53" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AD53" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AE53" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AF53" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AG53" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AH53" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AI53" s="31" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:35" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="52"/>
+      <c r="A54" s="53"/>
       <c r="B54" s="32"/>
       <c r="C54" s="33"/>
       <c r="D54" s="34"/>
@@ -7072,115 +7142,115 @@
       <c r="F54" s="35"/>
       <c r="G54" s="36"/>
       <c r="H54" s="37" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I54" s="37" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J54" s="37" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="K54" s="37" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="L54" s="37" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="M54" s="37" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="N54" s="37" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="O54" s="37" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="P54" s="37" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="Q54" s="37" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="R54" s="37" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="S54" s="37" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="T54" s="37" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="U54" s="37" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="V54" s="37" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="W54" s="37" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="X54" s="37" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="Y54" s="37" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="Z54" s="37" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AA54" s="37" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AB54" s="37" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AC54" s="37" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AD54" s="37" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AE54" s="37" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AF54" s="37" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AG54" s="37" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AH54" s="37" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AI54" s="38" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -7237,6 +7307,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="V5:AB5"/>
+    <mergeCell ref="AC5:AI5"/>
+    <mergeCell ref="A39:A46"/>
+    <mergeCell ref="H5:N5"/>
     <mergeCell ref="H3:AI3"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="A47:A54"/>
@@ -7253,10 +7327,6 @@
     <mergeCell ref="G3:G5"/>
     <mergeCell ref="A7:A14"/>
     <mergeCell ref="O5:U5"/>
-    <mergeCell ref="V5:AB5"/>
-    <mergeCell ref="AC5:AI5"/>
-    <mergeCell ref="A39:A46"/>
-    <mergeCell ref="H5:N5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H7:AI14">
@@ -7265,32 +7335,32 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15:AI22">
-    <cfRule type="cellIs" dxfId="4" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="13" operator="equal">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23:AI30">
-    <cfRule type="cellIs" dxfId="3" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="10" operator="equal">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31:AI38">
-    <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39:AI46">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47:AI54">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7:G1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$E$2:$G$2</formula1>
     </dataValidation>
   </dataValidations>
